--- a/300190_维尔利/维尔利.xlsx
+++ b/300190_维尔利/维尔利.xlsx
@@ -5,19 +5,20 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/doc/personal/stock/300190_维尔利/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/300190_维尔利/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3900" windowWidth="25600" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="自由现金流" sheetId="2" r:id="rId2"/>
     <sheet name="工作表2" sheetId="3" r:id="rId3"/>
-    <sheet name="现金流净利润比" sheetId="4" r:id="rId4"/>
-    <sheet name="应收" sheetId="7" r:id="rId5"/>
-    <sheet name="存货" sheetId="6" r:id="rId6"/>
+    <sheet name="估值" sheetId="8" r:id="rId4"/>
+    <sheet name="现金流净利润比" sheetId="4" r:id="rId5"/>
+    <sheet name="应收" sheetId="7" r:id="rId6"/>
+    <sheet name="存货" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,6 +1161,80 @@
   </si>
   <si>
     <t>资产利用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始净利润</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终估值</t>
+    <rPh sb="0" eb="1">
+      <t>zui'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估净利润</t>
+    <rPh sb="0" eb="1">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jinl'gi'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现价值</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣估值</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合增长</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接盘价格</t>
+    <rPh sb="0" eb="1">
+      <t>jie'pan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1259,6 +1334,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1547,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
@@ -3550,14 +3637,14 @@
         <v>1249415004.1199999</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" ref="E83:E92" si="16">C83-D83</f>
+        <f t="shared" ref="E83:E90" si="16">C83-D83</f>
         <v>168350371.49000001</v>
       </c>
       <c r="F83" s="5">
         <v>186731142.05000001</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" ref="G83:G92" si="17">F83/C83</f>
+        <f t="shared" ref="G83:G90" si="17">F83/C83</f>
         <v>0.13170807050472516</v>
       </c>
       <c r="H83" s="1">
@@ -5003,10 +5090,394 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9">
+        <v>45143297.100000001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>47735376.670000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>68000398.879999995</v>
+      </c>
+      <c r="F3" s="9">
+        <v>28881580</v>
+      </c>
+      <c r="G3" s="9">
+        <v>96069481.920000002</v>
+      </c>
+      <c r="H3" s="9">
+        <v>120559675.81</v>
+      </c>
+      <c r="I3" s="9">
+        <v>92753424.450000003</v>
+      </c>
+      <c r="J3" s="9">
+        <v>138703129.69</v>
+      </c>
+      <c r="K3" s="9">
+        <v>232366860.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="e">
+        <f>(C3-B3)/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:K4" si="0">(D3-C3)/C3</f>
+        <v>5.7418924547272383E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42452838175121899</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.57527337374936294</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3263236263390024</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2549216816886109</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.23064305020048476</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49539632107890325</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67528202715639818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <f>(K3-C3)/C3/9</f>
+        <v>0.46081299921513952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <f>K3*0.27</f>
+        <v>62739052.275600001</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="19">
+        <v>15</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2023</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="22">
+        <f>A8*(1+D8)</f>
+        <v>81560767.958279997</v>
+      </c>
+      <c r="C12" s="22">
+        <f>B12*(1+D8)</f>
+        <v>106028998.345764</v>
+      </c>
+      <c r="D12" s="22">
+        <f>C12*(1+D8)</f>
+        <v>137837697.84949321</v>
+      </c>
+      <c r="E12" s="22">
+        <f>D12*(1+D8)</f>
+        <v>179189007.20434117</v>
+      </c>
+      <c r="F12" s="22">
+        <f>E12*(1+D8)</f>
+        <v>232945709.36564353</v>
+      </c>
+      <c r="G12" s="22">
+        <f>F12*C8</f>
+        <v>3494185640.484653</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="M12">
+        <v>2018</v>
+      </c>
+      <c r="N12" s="9">
+        <v>232366860.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="20">
+        <f>B12/(1+B8)</f>
+        <v>77676921.86502856</v>
+      </c>
+      <c r="C13" s="20">
+        <f>C12/(1+B8)^2</f>
+        <v>96171427.070987746</v>
+      </c>
+      <c r="D13" s="20">
+        <f>D12/(1+B8)^3</f>
+        <v>119069385.8974134</v>
+      </c>
+      <c r="E13" s="20">
+        <f>E12/(1+B8)^4</f>
+        <v>147419239.68251187</v>
+      </c>
+      <c r="F13" s="20">
+        <f>F12/(1+B8)^5</f>
+        <v>182519058.65453848</v>
+      </c>
+      <c r="G13" s="20">
+        <f>G12/(1+B8)^4</f>
+        <v>2874675173.8089814</v>
+      </c>
+      <c r="H13" s="20">
+        <f>SUM(B13:G13)</f>
+        <v>3497531206.9794617</v>
+      </c>
+      <c r="M13">
+        <f>M12-1</f>
+        <v>2017</v>
+      </c>
+      <c r="N13" s="9">
+        <v>138703129.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="20">
+        <f>H13*E8</f>
+        <v>5246296810.4691925</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M20" si="1">M13-1</f>
+        <v>2016</v>
+      </c>
+      <c r="N14" s="9">
+        <v>92753424.450000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="N15" s="9">
+        <v>120559675.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="N16" s="9">
+        <v>96069481.920000002</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="N17" s="9">
+        <v>28881580</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="N18" s="9">
+        <v>68000398.879999995</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="N19" s="9">
+        <v>47735376.670000002</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="N20" s="9">
+        <v>45143297.100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K13"/>
+      <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5950,22 +6421,22 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:27" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -6044,7 +6515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6059,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L13"/>
   <sheetViews>

--- a/300190_维尔利/维尔利.xlsx
+++ b/300190_维尔利/维尔利.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/300190_维尔利/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="自由现金流" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
-    <sheet name="估值" sheetId="8" r:id="rId4"/>
-    <sheet name="现金流净利润比" sheetId="4" r:id="rId5"/>
-    <sheet name="应收" sheetId="7" r:id="rId6"/>
-    <sheet name="存货" sheetId="6" r:id="rId7"/>
+    <sheet name="roe" sheetId="2" r:id="rId2"/>
+    <sheet name="估值" sheetId="8" r:id="rId3"/>
+    <sheet name="现金流净利润比" sheetId="4" r:id="rId4"/>
+    <sheet name="应收" sheetId="7" r:id="rId5"/>
+    <sheet name="存货" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,9 +498,6 @@
       <t>jing'e</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额</t>
   </si>
   <si>
     <t>环比增长</t>
@@ -1241,13 +1232,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,6 +1271,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1308,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1322,8 +1314,6 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1638,24 +1628,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1732,7 +1722,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1777,7 +1767,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1804,7 +1794,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1831,7 +1821,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1858,7 +1848,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1885,7 +1875,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1912,7 +1902,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -1939,7 +1929,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -1966,7 +1956,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -1993,12 +1983,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2078,7 +2068,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2123,7 +2113,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2152,7 +2142,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2181,7 +2171,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2210,7 +2200,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2239,7 +2229,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2268,7 +2258,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2297,7 +2287,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2326,7 +2316,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2355,7 +2345,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2384,7 +2374,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2396,19 +2386,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2486,7 +2476,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2529,7 +2519,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2556,7 +2546,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2583,7 +2573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2610,7 +2600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2637,7 +2627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2664,7 +2654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2691,7 +2681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2718,7 +2708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2745,7 +2735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2772,7 +2762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2784,13 +2774,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2819,7 +2809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2857,7 +2847,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2895,7 +2885,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2919,7 +2909,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2943,7 +2933,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2967,7 +2957,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2991,7 +2981,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3015,7 +3005,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3039,7 +3029,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3063,7 +3053,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3087,7 +3077,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3111,7 +3101,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3120,7 +3110,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3204,7 +3194,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3250,7 +3240,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3281,7 +3271,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3312,7 +3302,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3343,7 +3333,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3374,7 +3364,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3405,7 +3395,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3436,7 +3426,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3467,7 +3457,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3498,7 +3488,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3529,7 +3519,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3539,12 +3529,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3573,13 +3563,13 @@
         <v>51</v>
       </c>
       <c r="J81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3622,7 +3612,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3666,7 +3656,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3709,7 +3699,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3752,7 +3742,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3795,7 +3785,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3838,7 +3828,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3881,7 +3871,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3924,7 +3914,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -3967,7 +3957,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3983,7 +3973,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3999,22 +3989,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4046,7 +4036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4084,7 +4074,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4122,7 +4112,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4148,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4174,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4200,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4226,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4252,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4278,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4304,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4330,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4350,13 +4340,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4371,16 +4361,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4391,7 +4381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4411,8 +4401,9 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
+        <f>A4-1</f>
         <v>2017</v>
       </c>
       <c r="B5" s="9"/>
@@ -4431,8 +4422,9 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
+        <f t="shared" ref="A6:A13" si="0">A5-1</f>
         <v>2016</v>
       </c>
       <c r="B6" s="9"/>
@@ -4451,8 +4443,9 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="B7" s="9"/>
@@ -4471,8 +4464,9 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="B8" s="9"/>
@@ -4491,7 +4485,11 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4506,7 +4504,11 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4521,7 +4523,11 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4536,7 +4542,11 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4551,7 +4561,11 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4566,7 +4580,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4581,7 +4595,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4596,7 +4610,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4611,7 +4625,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4626,7 +4640,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4641,7 +4655,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4656,7 +4670,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4671,7 +4685,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4686,7 +4700,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4701,7 +4715,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4716,7 +4730,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4731,7 +4745,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4746,7 +4760,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4761,7 +4775,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4776,7 +4790,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4791,7 +4805,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4806,7 +4820,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4829,19 +4843,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="20.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4876,210 +4900,323 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="20.25">
       <c r="A3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9">
+        <v>45143297.100000001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>47735376.670000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>68000398.879999995</v>
+      </c>
+      <c r="F3" s="9">
+        <v>28881580</v>
+      </c>
+      <c r="G3" s="9">
+        <v>96069481.920000002</v>
+      </c>
+      <c r="H3" s="9">
+        <v>120559675.81</v>
+      </c>
+      <c r="I3" s="9">
+        <v>92753424.450000003</v>
+      </c>
+      <c r="J3" s="9">
+        <v>138703129.69</v>
+      </c>
+      <c r="K3" s="9">
+        <v>232366860.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="10">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10">
-        <v>-73</v>
-      </c>
-      <c r="E3" s="10">
-        <v>-90</v>
-      </c>
-      <c r="F3" s="10">
-        <v>-49</v>
-      </c>
-      <c r="G3" s="10">
-        <v>40</v>
-      </c>
-      <c r="H3" s="10">
-        <v>52</v>
-      </c>
-      <c r="I3" s="10">
-        <v>31</v>
-      </c>
-      <c r="J3" s="10">
-        <v>65</v>
-      </c>
-      <c r="K3" s="10">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="e">
         <f>(C3-B3)/B3</f>
-        <v>0.29411764705882354</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:K4" si="0">(D3-C3)/C3</f>
-        <v>-4.3181818181818183</v>
+        <v>5.7418924547272383E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.23287671232876711</v>
+        <v>0.42452838175121899</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>-0.45555555555555555</v>
+        <v>-0.57527337374936294</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8163265306122449</v>
+        <v>2.3263236263390024</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2549216816886109</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>-0.40384615384615385</v>
+        <v>-0.23064305020048476</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.096774193548387</v>
+        <v>0.49539632107890325</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>2.7846153846153845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>0.67528202715639818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <f>(K3-C3)/C3/9</f>
+        <v>0.46081299921513952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B8">
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="18">
+        <f>K3*0.27</f>
+        <v>62739052.275600001</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="17">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="17">
         <v>2019</v>
       </c>
-      <c r="C8">
+      <c r="C11" s="17">
         <v>2020</v>
       </c>
-      <c r="D8">
+      <c r="D11" s="17">
         <v>2021</v>
       </c>
-      <c r="E8">
+      <c r="E11" s="17">
         <v>2022</v>
       </c>
-      <c r="F8">
+      <c r="F11" s="17">
         <v>2023</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.05</v>
-      </c>
-      <c r="B9">
-        <v>3.75</v>
-      </c>
-      <c r="C9">
-        <f>B9*(1+A13)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D9">
-        <f>C9*(1+A13)</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="E9">
-        <f>D9*(1+A13)</f>
-        <v>6.4799999999999995</v>
-      </c>
-      <c r="F9">
-        <f>E9*(1+A13)</f>
-        <v>7.7759999999999989</v>
-      </c>
-      <c r="G9">
-        <f>F9*A11</f>
-        <v>116.63999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <f>B9/(1+A9)</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="C10">
-        <f>C9/(1+A9)^2</f>
-        <v>4.0816326530612246</v>
-      </c>
-      <c r="D10">
-        <f>D9/(1+A9)^3</f>
-        <v>4.6647230320699702</v>
-      </c>
-      <c r="E10">
-        <f>E9/(1+A9)^4</f>
-        <v>5.3311120366513949</v>
-      </c>
-      <c r="F10">
-        <f>F9/(1+A9)^5</f>
-        <v>6.0926994704587356</v>
-      </c>
-      <c r="G10">
-        <f>G9/(1+A9)^4</f>
-        <v>95.960016659725099</v>
-      </c>
-      <c r="H10">
-        <f>SUM(B10:G10)</f>
-        <v>119.70161242339499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <f>H10*A15</f>
-        <v>83.791128696376489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.7</v>
+      <c r="G11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="20">
+        <f>A8*(1+D8)</f>
+        <v>81560767.958279997</v>
+      </c>
+      <c r="C12" s="20">
+        <f>B12*(1+D8)</f>
+        <v>106028998.345764</v>
+      </c>
+      <c r="D12" s="20">
+        <f>C12*(1+D8)</f>
+        <v>137837697.84949321</v>
+      </c>
+      <c r="E12" s="20">
+        <f>D12*(1+D8)</f>
+        <v>179189007.20434117</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E12*(1+D8)</f>
+        <v>232945709.36564353</v>
+      </c>
+      <c r="G12" s="20">
+        <f>F12*C8</f>
+        <v>3494185640.484653</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="M12">
+        <v>2018</v>
+      </c>
+      <c r="N12" s="9">
+        <v>232366860.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="18">
+        <f>B12/(1+B8)</f>
+        <v>77676921.86502856</v>
+      </c>
+      <c r="C13" s="18">
+        <f>C12/(1+B8)^2</f>
+        <v>96171427.070987746</v>
+      </c>
+      <c r="D13" s="18">
+        <f>D12/(1+B8)^3</f>
+        <v>119069385.8974134</v>
+      </c>
+      <c r="E13" s="18">
+        <f>E12/(1+B8)^4</f>
+        <v>147419239.68251187</v>
+      </c>
+      <c r="F13" s="18">
+        <f>F12/(1+B8)^5</f>
+        <v>182519058.65453848</v>
+      </c>
+      <c r="G13" s="18">
+        <f>G12/(1+B8)^4</f>
+        <v>2874675173.8089814</v>
+      </c>
+      <c r="H13" s="18">
+        <f>SUM(B13:G13)</f>
+        <v>3497531206.9794617</v>
+      </c>
+      <c r="M13">
+        <f>M12-1</f>
+        <v>2017</v>
+      </c>
+      <c r="N13" s="9">
+        <v>138703129.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="18">
+        <f>H13*E8</f>
+        <v>5246296810.4691925</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M20" si="1">M13-1</f>
+        <v>2016</v>
+      </c>
+      <c r="N14" s="9">
+        <v>92753424.450000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="N15" s="9">
+        <v>120559675.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="N16" s="9">
+        <v>96069481.920000002</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="N17" s="9">
+        <v>28881580</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="N18" s="9">
+        <v>68000398.879999995</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="N19" s="9">
+        <v>47735376.670000002</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="N20" s="9">
+        <v>45143297.100000001</v>
       </c>
     </row>
   </sheetData>
@@ -5090,502 +5227,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2009</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G2" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I2" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K2" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9">
-        <v>45143297.100000001</v>
-      </c>
-      <c r="D3" s="9">
-        <v>47735376.670000002</v>
-      </c>
-      <c r="E3" s="9">
-        <v>68000398.879999995</v>
-      </c>
-      <c r="F3" s="9">
-        <v>28881580</v>
-      </c>
-      <c r="G3" s="9">
-        <v>96069481.920000002</v>
-      </c>
-      <c r="H3" s="9">
-        <v>120559675.81</v>
-      </c>
-      <c r="I3" s="9">
-        <v>92753424.450000003</v>
-      </c>
-      <c r="J3" s="9">
-        <v>138703129.69</v>
-      </c>
-      <c r="K3" s="9">
-        <v>232366860.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="e">
-        <f>(C3-B3)/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:K4" si="0">(D3-C3)/C3</f>
-        <v>5.7418924547272383E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42452838175121899</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.57527337374936294</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3263236263390024</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2549216816886109</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.23064305020048476</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49539632107890325</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.67528202715639818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <f>(K3-C3)/C3/9</f>
-        <v>0.46081299921513952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <f>K3*0.27</f>
-        <v>62739052.275600001</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="19">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2021</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2022</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2023</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="22">
-        <f>A8*(1+D8)</f>
-        <v>81560767.958279997</v>
-      </c>
-      <c r="C12" s="22">
-        <f>B12*(1+D8)</f>
-        <v>106028998.345764</v>
-      </c>
-      <c r="D12" s="22">
-        <f>C12*(1+D8)</f>
-        <v>137837697.84949321</v>
-      </c>
-      <c r="E12" s="22">
-        <f>D12*(1+D8)</f>
-        <v>179189007.20434117</v>
-      </c>
-      <c r="F12" s="22">
-        <f>E12*(1+D8)</f>
-        <v>232945709.36564353</v>
-      </c>
-      <c r="G12" s="22">
-        <f>F12*C8</f>
-        <v>3494185640.484653</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="M12">
-        <v>2018</v>
-      </c>
-      <c r="N12" s="9">
-        <v>232366860.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="20">
-        <f>B12/(1+B8)</f>
-        <v>77676921.86502856</v>
-      </c>
-      <c r="C13" s="20">
-        <f>C12/(1+B8)^2</f>
-        <v>96171427.070987746</v>
-      </c>
-      <c r="D13" s="20">
-        <f>D12/(1+B8)^3</f>
-        <v>119069385.8974134</v>
-      </c>
-      <c r="E13" s="20">
-        <f>E12/(1+B8)^4</f>
-        <v>147419239.68251187</v>
-      </c>
-      <c r="F13" s="20">
-        <f>F12/(1+B8)^5</f>
-        <v>182519058.65453848</v>
-      </c>
-      <c r="G13" s="20">
-        <f>G12/(1+B8)^4</f>
-        <v>2874675173.8089814</v>
-      </c>
-      <c r="H13" s="20">
-        <f>SUM(B13:G13)</f>
-        <v>3497531206.9794617</v>
-      </c>
-      <c r="M13">
-        <f>M12-1</f>
-        <v>2017</v>
-      </c>
-      <c r="N13" s="9">
-        <v>138703129.69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="20">
-        <f>H13*E8</f>
-        <v>5246296810.4691925</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M20" si="1">M13-1</f>
-        <v>2016</v>
-      </c>
-      <c r="N14" s="9">
-        <v>92753424.450000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>2015</v>
-      </c>
-      <c r="N15" s="9">
-        <v>120559675.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>2014</v>
-      </c>
-      <c r="N16" s="9">
-        <v>96069481.920000002</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="N17" s="9">
-        <v>28881580</v>
-      </c>
-    </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-      <c r="N18" s="9">
-        <v>68000398.879999995</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>2011</v>
-      </c>
-      <c r="N19" s="9">
-        <v>47735376.670000002</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>2010</v>
-      </c>
-      <c r="N20" s="9">
-        <v>45143297.100000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="19" width="17.83203125" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
-    <col min="27" max="27" width="18.1640625" customWidth="1"/>
+    <col min="14" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="24" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
       <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>81</v>
       </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5640,10 +5393,10 @@
       <c r="Q4" s="9">
         <v>51728220.75</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <v>-7435631.6900000004</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="11">
         <v>-9082167.9000000004</v>
       </c>
       <c r="T4" s="9">
@@ -5663,7 +5416,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5742,7 +5495,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="5">A5-1</f>
         <v>2016</v>
@@ -5821,7 +5574,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>2015</v>
@@ -5900,7 +5653,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>2014</v>
@@ -5977,7 +5730,7 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="15">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -5988,7 +5741,7 @@
       <c r="C9" s="9">
         <v>20942216.949999999</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>28483511.449999999</v>
       </c>
       <c r="E9" s="9">
@@ -6050,7 +5803,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>2012</v>
@@ -6125,7 +5878,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="15.75">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -6176,7 +5929,7 @@
       <c r="P11" s="9">
         <v>20348.97</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="13">
         <v>1954697.19</v>
       </c>
       <c r="R11" s="9">
@@ -6200,7 +5953,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2010</v>
@@ -6273,9 +6026,9 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="9">
         <f>SUM(B4:B12)</f>
@@ -6367,7 +6120,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6394,7 +6147,7 @@
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6420,23 +6173,23 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+    <row r="16" spans="1:27" ht="170.1" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -6450,21 +6203,21 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+    <row r="17" spans="1:26">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -6478,20 +6231,20 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+    <row r="18" spans="1:26">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -6515,7 +6268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6523,14 +6276,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L13"/>
   <sheetViews>
@@ -6538,54 +6291,54 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>102</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>104</v>
       </c>
-      <c r="K3" t="s">
-        <v>105</v>
-      </c>
       <c r="L3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6625,7 +6378,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6666,7 +6419,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6680,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6694,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6708,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6722,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6736,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6762,7 +6515,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6782,7 +6535,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>

--- a/300190_维尔利/维尔利.xlsx
+++ b/300190_维尔利/维尔利.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/300190_维尔利/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +19,20 @@
     <sheet name="应收" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,18 +1149,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>折扣</t>
-    <rPh sb="0" eb="1">
-      <t>zhe'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产利用率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营活动产生的现金流量净额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1209,7 +1203,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>符合增长</t>
+    <t>接盘价格</t>
+    <rPh sb="0" eb="1">
+      <t>jie'pan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合增长</t>
     <rPh sb="0" eb="1">
       <t>fu'he</t>
     </rPh>
@@ -1219,12 +1223,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接盘价格</t>
-    <rPh sb="0" eb="1">
-      <t>jie'pan</t>
+    <t>近5年复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流折扣</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gu'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价格</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>qi'wang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1232,13 +1286,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1342,6 +1396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1628,24 +1683,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="22.125" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1722,7 +1777,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1767,7 +1822,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1794,7 +1849,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1821,7 +1876,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1848,7 +1903,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1875,7 +1930,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1902,7 +1957,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -1929,7 +1984,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -1956,7 +2011,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -1983,12 +2038,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2068,7 +2123,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2113,7 +2168,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2142,7 +2197,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2171,7 +2226,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2200,7 +2255,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2229,7 +2284,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2258,7 +2313,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2287,7 +2342,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2316,7 +2371,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2345,7 +2400,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2374,7 +2429,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2386,19 +2441,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2476,7 +2531,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2519,7 +2574,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2546,7 +2601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2573,7 +2628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2600,7 +2655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2627,7 +2682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2654,7 +2709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2681,7 +2736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2708,7 +2763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2735,7 +2790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2762,7 +2817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2774,13 +2829,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +2864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2847,7 +2902,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2885,7 +2940,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2909,7 +2964,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2933,7 +2988,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2957,7 +3012,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2981,7 +3036,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3005,7 +3060,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3029,7 +3084,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3053,7 +3108,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3077,7 +3132,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3101,7 +3156,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3110,7 +3165,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3148,7 +3203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3194,7 +3249,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1">
+    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3240,7 +3295,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3271,7 +3326,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3302,7 +3357,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3333,7 +3388,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3364,7 +3419,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3395,7 +3450,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3426,7 +3481,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3457,7 +3512,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3488,7 +3543,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3519,7 +3574,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3529,12 +3584,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3563,13 +3618,13 @@
         <v>51</v>
       </c>
       <c r="J81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3612,7 +3667,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3656,7 +3711,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3699,7 +3754,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3742,7 +3797,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3785,7 +3840,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3828,7 +3883,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3871,7 +3926,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3914,7 +3969,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -3957,7 +4012,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3973,7 +4028,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3989,22 +4044,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4074,7 +4129,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4112,7 +4167,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4138,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4164,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4190,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4216,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4242,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4268,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4294,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4320,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4340,13 +4395,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4361,16 +4416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4401,7 +4456,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -4422,7 +4477,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="0">A5-1</f>
         <v>2016</v>
@@ -4443,7 +4498,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -4464,7 +4519,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -4485,7 +4540,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -4504,7 +4559,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -4523,7 +4578,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -4542,7 +4597,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -4561,7 +4616,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -4580,7 +4635,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4595,7 +4650,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4610,7 +4665,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4625,7 +4680,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4640,7 +4695,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4655,7 +4710,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4670,7 +4725,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4685,7 +4740,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4700,7 +4755,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4715,7 +4770,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4730,7 +4785,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4745,7 +4800,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4760,7 +4815,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4775,7 +4830,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4790,7 +4845,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4805,7 +4860,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4820,7 +4875,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4843,29 +4898,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N20"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20.25">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4900,9 +4955,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.25">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="9">
@@ -4933,7 +4988,7 @@
         <v>232366860.28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4974,248 +5029,273 @@
         <v>0.67528202715639818</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(K3/C3)^(1/8)-1</f>
+        <v>0.22729118337026111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="B5">
-        <f>(K3-C3)/C3/9</f>
-        <v>0.46081299921513952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="2">
+        <f>(K3/G3)^(1/4)-1</f>
+        <v>0.24708824414141128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <f>K3*E9</f>
+        <v>62739052.275600001</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="17">
+        <v>24</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2023</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="18">
-        <f>K3*0.27</f>
-        <v>62739052.275600001</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="17">
-        <v>15</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="17">
-        <v>2021</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2022</v>
-      </c>
-      <c r="F11" s="17">
-        <v>2023</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="B13" s="20">
+        <f>A9*(1+D9)</f>
+        <v>75286862.730719998</v>
+      </c>
+      <c r="C13" s="20">
+        <f>B13*(1+D9)</f>
+        <v>90344235.276863992</v>
+      </c>
+      <c r="D13" s="20">
+        <f>C13*(1+D9)</f>
+        <v>108413082.33223678</v>
+      </c>
+      <c r="E13" s="20">
+        <f>D13*(1+D9)</f>
+        <v>130095698.79868414</v>
+      </c>
+      <c r="F13" s="20">
+        <f>E13*(1+D9)</f>
+        <v>156114838.55842096</v>
+      </c>
+      <c r="G13" s="20">
+        <f>F13*C9</f>
+        <v>3746756125.4021029</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="M13">
+        <v>2018</v>
+      </c>
+      <c r="N13" s="9">
+        <v>232366860.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="17" t="s">
+      <c r="B14" s="18">
+        <f>B13/(1+B9)</f>
+        <v>71701774.029257134</v>
+      </c>
+      <c r="C14" s="18">
+        <f>C13/(1+B9)^2</f>
+        <v>81944884.604865298</v>
+      </c>
+      <c r="D14" s="18">
+        <f>D13/(1+B9)^3</f>
+        <v>93651296.691274613</v>
+      </c>
+      <c r="E14" s="18">
+        <f>E13/(1+B9)^4</f>
+        <v>107030053.36145671</v>
+      </c>
+      <c r="F14" s="18">
+        <f>F13/(1+B9)^5</f>
+        <v>122320060.98452193</v>
+      </c>
+      <c r="G14" s="18">
+        <f>G13/(1+B9)^4</f>
+        <v>3082465536.8099532</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(B14:G14)</f>
+        <v>3559113606.481329</v>
+      </c>
+      <c r="I14" s="23">
+        <v>452284906</v>
+      </c>
+      <c r="J14">
+        <f>H14/I14</f>
+        <v>7.8691850187044023</v>
+      </c>
+      <c r="K14">
+        <v>8.17</v>
+      </c>
+      <c r="L14" s="2">
+        <f>J14/K14-1</f>
+        <v>-3.6819459154907919E-2</v>
+      </c>
+      <c r="M14">
+        <f>M13-1</f>
+        <v>2017</v>
+      </c>
+      <c r="N14" s="9">
+        <v>138703129.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="20">
-        <f>A8*(1+D8)</f>
-        <v>81560767.958279997</v>
-      </c>
-      <c r="C12" s="20">
-        <f>B12*(1+D8)</f>
-        <v>106028998.345764</v>
-      </c>
-      <c r="D12" s="20">
-        <f>C12*(1+D8)</f>
-        <v>137837697.84949321</v>
-      </c>
-      <c r="E12" s="20">
-        <f>D12*(1+D8)</f>
-        <v>179189007.20434117</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E12*(1+D8)</f>
-        <v>232945709.36564353</v>
-      </c>
-      <c r="G12" s="20">
-        <f>F12*C8</f>
-        <v>3494185640.484653</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="M12">
-        <v>2018</v>
-      </c>
-      <c r="N12" s="9">
-        <v>232366860.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="18">
-        <f>B12/(1+B8)</f>
-        <v>77676921.86502856</v>
-      </c>
-      <c r="C13" s="18">
-        <f>C12/(1+B8)^2</f>
-        <v>96171427.070987746</v>
-      </c>
-      <c r="D13" s="18">
-        <f>D12/(1+B8)^3</f>
-        <v>119069385.8974134</v>
-      </c>
-      <c r="E13" s="18">
-        <f>E12/(1+B8)^4</f>
-        <v>147419239.68251187</v>
-      </c>
-      <c r="F13" s="18">
-        <f>F12/(1+B8)^5</f>
-        <v>182519058.65453848</v>
-      </c>
-      <c r="G13" s="18">
-        <f>G12/(1+B8)^4</f>
-        <v>2874675173.8089814</v>
-      </c>
-      <c r="H13" s="18">
-        <f>SUM(B13:G13)</f>
-        <v>3497531206.9794617</v>
-      </c>
-      <c r="M13">
-        <f>M12-1</f>
-        <v>2017</v>
-      </c>
-      <c r="N13" s="9">
-        <v>138703129.69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="18">
-        <f>H13*E8</f>
-        <v>5246296810.4691925</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M20" si="1">M13-1</f>
+      <c r="H15" s="18">
+        <f>H14*E9</f>
+        <v>960960673.74995887</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M21" si="1">M14-1</f>
         <v>2016</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>92753424.450000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="M15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>120559675.81</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="M16">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>96069481.920000002</v>
       </c>
     </row>
-    <row r="17" spans="13:14">
-      <c r="M17">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>28881580</v>
       </c>
     </row>
-    <row r="18" spans="13:14">
-      <c r="M18">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>68000398.879999995</v>
       </c>
     </row>
-    <row r="19" spans="13:14">
-      <c r="M19">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <v>47735376.670000002</v>
       </c>
     </row>
-    <row r="20" spans="13:14">
-      <c r="M20">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <v>45143297.100000001</v>
       </c>
     </row>
@@ -5233,27 +5313,27 @@
       <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="19" width="17.875" customWidth="1"/>
-    <col min="20" max="20" width="15.625" customWidth="1"/>
-    <col min="21" max="21" width="16.125" customWidth="1"/>
-    <col min="22" max="24" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.625" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="14" max="19" width="17.83203125" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -5267,7 +5347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5338,7 +5418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5416,7 +5496,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5495,7 +5575,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="5">A5-1</f>
         <v>2016</v>
@@ -5574,7 +5654,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>2015</v>
@@ -5653,7 +5733,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>2014</v>
@@ -5730,7 +5810,7 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:27" ht="15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -5803,7 +5883,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>2012</v>
@@ -5878,7 +5958,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -5953,7 +6033,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2010</v>
@@ -6026,7 +6106,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6120,7 +6200,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6147,7 +6227,7 @@
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6173,7 +6253,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="170.1" customHeight="1">
+    <row r="16" spans="1:27" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>106</v>
       </c>
@@ -6203,7 +6283,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -6231,7 +6311,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6276,7 +6356,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6291,16 +6371,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6338,7 +6418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6378,7 +6458,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6419,7 +6499,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6433,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6447,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6461,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6475,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6489,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6515,7 +6595,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6535,7 +6615,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>

--- a/300190_维尔利/维尔利.xlsx
+++ b/300190_维尔利/维尔利.xlsx
@@ -1,38 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/300190_维尔利/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="roe" sheetId="2" r:id="rId2"/>
     <sheet name="估值" sheetId="8" r:id="rId3"/>
     <sheet name="现金流净利润比" sheetId="4" r:id="rId4"/>
-    <sheet name="应收" sheetId="7" r:id="rId5"/>
+    <sheet name="应收账款周转率" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
+    <sheet name="资产负债表" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,17 +1279,120 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>销售额</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款</t>
+    <rPh sb="0" eb="1">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款合计</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转率</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转天数</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公允价值变动损失</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sun'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税负债增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,6 +1433,30 @@
       <name val="TimesNewRomanPSMT"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1342,7 +1466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1350,11 +1474,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1390,13 +1529,18 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1412,6 +1556,1865 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3569679164884199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.542238502235965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2180674147776229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2837678435850992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9104189591132099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96701805040379052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5703578136507408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2252399824388216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D05-4804-8BC3-6F649E5E26D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="778899247"/>
+        <c:axId val="778905903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="778899247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778905903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="778905903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778899247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转天数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>152.73860856636261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.256076012474068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.86838359782371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.63423633939325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.44034094338502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>372.27846972419746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229.2471160843771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.78030362614945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B71-43AA-9086-2F82FCC7FCE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660859359"/>
+        <c:axId val="775208783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660859359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775208783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="775208783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660859359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1683,24 +3686,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +3735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1777,7 +3780,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1822,7 +3825,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1849,7 +3852,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1876,7 +3879,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1903,7 +3906,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1930,7 +3933,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1957,7 +3960,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -1984,7 +3987,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -2011,7 +4014,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -2038,12 +4041,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +4081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2123,7 +4126,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2168,7 +4171,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2197,7 +4200,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2226,7 +4229,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2255,7 +4258,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2284,7 +4287,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2313,7 +4316,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2342,7 +4345,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2371,7 +4374,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2400,7 +4403,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2429,7 +4432,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2441,19 +4444,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2488,7 +4491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2531,7 +4534,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2574,7 +4577,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2601,7 +4604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2628,7 +4631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2655,7 +4658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2682,7 +4685,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2709,7 +4712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2736,7 +4739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2763,7 +4766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2790,7 +4793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2817,7 +4820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2829,13 +4832,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +4867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2902,7 +4905,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2940,7 +4943,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2964,7 +4967,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2988,7 +4991,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3012,7 +5015,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3036,7 +5039,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3060,7 +5063,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3084,7 +5087,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3108,7 +5111,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3132,7 +5135,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3156,7 +5159,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3165,7 +5168,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +5206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3249,7 +5252,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3295,7 +5298,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3326,7 +5329,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3357,7 +5360,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3388,7 +5391,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3419,7 +5422,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3450,7 +5453,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3481,7 +5484,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3512,7 +5515,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3543,7 +5546,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3574,7 +5577,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3584,12 +5587,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3624,7 +5627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3667,7 +5670,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3711,7 +5714,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3754,7 +5757,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3797,7 +5800,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3840,7 +5843,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3883,7 +5886,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3926,7 +5929,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3969,7 +5972,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -4012,7 +6015,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4028,7 +6031,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4044,22 +6047,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4091,7 +6094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4129,7 +6132,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4167,7 +6170,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4193,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4219,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4245,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4271,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4297,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4323,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4349,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4375,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4395,13 +6398,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4420,12 +6423,12 @@
       <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4436,7 +6439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4456,7 +6459,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -4477,7 +6480,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="0">A5-1</f>
         <v>2016</v>
@@ -4498,7 +6501,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -4519,7 +6522,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -4540,7 +6543,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -4559,7 +6562,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -4578,7 +6581,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -4597,7 +6600,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -4616,7 +6619,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -4635,7 +6638,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4650,7 +6653,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4665,7 +6668,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4680,7 +6683,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4695,7 +6698,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4710,7 +6713,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4725,7 +6728,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4740,7 +6743,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4755,7 +6758,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4770,7 +6773,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4785,7 +6788,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4800,7 +6803,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4815,7 +6818,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4830,7 +6833,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4845,7 +6848,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4860,7 +6863,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4875,7 +6878,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4900,27 +6903,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="20.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4955,7 +6958,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="20.25">
       <c r="A3" s="10" t="s">
         <v>51</v>
       </c>
@@ -4988,7 +6991,7 @@
         <v>232366860.28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5029,7 +7032,7 @@
         <v>0.67528202715639818</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -5038,7 +7041,7 @@
         <v>0.22729118337026111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -5047,7 +7050,7 @@
         <v>0.24708824414141128</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
         <v>109</v>
       </c>
@@ -5064,7 +7067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="18">
         <f>K3*E9</f>
         <v>62739052.275600001</v>
@@ -5082,10 +7085,10 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="17"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5095,7 +7098,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="17" t="s">
         <v>66</v>
       </c>
@@ -5133,7 +7136,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="17" t="s">
         <v>111</v>
       </c>
@@ -5169,7 +7172,7 @@
         <v>232366860.28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
         <v>112</v>
       </c>
@@ -5201,7 +7204,7 @@
         <f>SUM(B14:G14)</f>
         <v>3559113606.481329</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>452284906</v>
       </c>
       <c r="J14">
@@ -5223,7 +7226,7 @@
         <v>138703129.69</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -5245,7 +7248,7 @@
         <v>92753424.450000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="M16">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -5254,7 +7257,7 @@
         <v>120559675.81</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:14">
       <c r="M17">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -5263,7 +7266,7 @@
         <v>96069481.920000002</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:14">
       <c r="M18">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -5272,7 +7275,7 @@
         <v>28881580</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:14">
       <c r="M19">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -5281,7 +7284,7 @@
         <v>68000398.879999995</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:14">
       <c r="M20">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -5290,7 +7293,7 @@
         <v>47735376.670000002</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:14">
       <c r="M21">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -5313,27 +7316,27 @@
       <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="19" width="17.83203125" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
-    <col min="27" max="27" width="18.1640625" customWidth="1"/>
+    <col min="14" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="24" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -5347,7 +7350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5418,7 +7421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5496,7 +7499,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5575,7 +7578,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="5">A5-1</f>
         <v>2016</v>
@@ -5654,7 +7657,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>2015</v>
@@ -5733,7 +7736,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>2014</v>
@@ -5810,7 +7813,7 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="15">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -5883,7 +7886,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>2012</v>
@@ -5958,7 +7961,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="15.75">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -6033,7 +8036,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2010</v>
@@ -6106,7 +8109,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6200,7 +8203,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6227,7 +8230,7 @@
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6253,23 +8256,23 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:27" ht="170.1" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -6283,7 +8286,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -6311,7 +8314,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6350,16 +8353,926 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2064843723.9100001</v>
+      </c>
+      <c r="D4" s="24">
+        <v>87977739.159999996</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1067203723.73</v>
+      </c>
+      <c r="F4" s="24">
+        <v>109579422.43000001</v>
+      </c>
+      <c r="G4" s="9">
+        <f>D4+E4</f>
+        <v>1155181462.8900001</v>
+      </c>
+      <c r="H4" s="2">
+        <f>C4/((G4+G5)/2)</f>
+        <v>2.3569679164884199</v>
+      </c>
+      <c r="I4" s="1">
+        <f>360/H4</f>
+        <v>152.73860856636261</v>
+      </c>
+      <c r="J4" s="9">
+        <f>F4+L4+N4+O4+P4+Q4+T4+U4+W4+X4+Y4+Z4+R4+S4+V4+AA4</f>
+        <v>1136233797.1900001</v>
+      </c>
+      <c r="K4" s="9">
+        <f>J4-G4</f>
+        <v>-18947665.700000048</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1451738988.05</v>
+      </c>
+      <c r="M4" s="2">
+        <f>L4/F4</f>
+        <v>13.248281071908181</v>
+      </c>
+      <c r="N4" s="9">
+        <v>230568528.09999999</v>
+      </c>
+      <c r="O4" s="9">
+        <v>75728611.670000002</v>
+      </c>
+      <c r="P4" s="9">
+        <v>9105604.8300000001</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>-11158802.279999999</v>
+      </c>
+      <c r="R4" s="9">
+        <v>-629658.09</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9">
+        <v>607803022.25999999</v>
+      </c>
+      <c r="U4" s="11">
+        <v>-43194721.909999996</v>
+      </c>
+      <c r="V4" s="11">
+        <v>15028120.73</v>
+      </c>
+      <c r="W4" s="11">
+        <v>-221700582.75999999</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-495185127.86000001</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>-2304139391.8200002</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1712689783.8399999</v>
+      </c>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5">
+        <f>B4-1</f>
+        <v>2017</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1417765375.6099999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>48182316.329999998</v>
+      </c>
+      <c r="E5" s="24">
+        <v>548754872.42999995</v>
+      </c>
+      <c r="F5" s="24">
+        <v>74093785.310000002</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G13" si="0">D5+E5</f>
+        <v>596937188.75999999</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H13" si="1">C5/((G5+G6)/2)</f>
+        <v>4.542238502235965</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I13" si="2">360/H5</f>
+        <v>79.256076012474068</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J13" si="3">F5+L5+N5+O5+P5+Q5+T5+U5+W5+X5+Y5+Z5+R5+S5+V5+AA5</f>
+        <v>1260015827.8799999</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" ref="K5:K13" si="4">J5-G5</f>
+        <v>663078639.11999989</v>
+      </c>
+      <c r="L5" s="9">
+        <v>29956438.440000001</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M13" si="5">L5/F5</f>
+        <v>0.40430433287576895</v>
+      </c>
+      <c r="N5" s="9">
+        <v>197938163.75</v>
+      </c>
+      <c r="O5" s="9">
+        <v>59049996.5</v>
+      </c>
+      <c r="P5" s="9">
+        <v>11177737.220000001</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>238205.34</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9">
+        <v>-850000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>484728351.18000001</v>
+      </c>
+      <c r="U5" s="9">
+        <v>-51846083.219999999</v>
+      </c>
+      <c r="V5" s="9">
+        <v>4772174.0599999996</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-17777905.27</v>
+      </c>
+      <c r="X5" s="9">
+        <v>8657711.1099999994</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>284052413.99000001</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>174990223.30000001</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>834616.17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6">
+        <f>B5-1</f>
+        <v>2016</v>
+      </c>
+      <c r="C6" s="23">
+        <v>773474068.86000001</v>
+      </c>
+      <c r="D6" s="24">
+        <v>21671257.780000001</v>
+      </c>
+      <c r="E6" s="24">
+        <v>5650000</v>
+      </c>
+      <c r="F6" s="24">
+        <v>95727161.140000001</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>27321257.780000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2180674147776229</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>111.86838359782371</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>-1916899182.8099997</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
+        <v>-1944220440.5899997</v>
+      </c>
+      <c r="L6" s="9">
+        <v>164488091.91</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7183011587425834</v>
+      </c>
+      <c r="N6" s="9">
+        <v>181260911.65000001</v>
+      </c>
+      <c r="O6" s="9">
+        <v>56205820.43</v>
+      </c>
+      <c r="P6" s="9">
+        <v>646321.86</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>627516.66</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9">
+        <v>239765940.99000001</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-25282857.18</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-600825.84</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-13337307.199999999</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-148611570.27000001</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-2550540994.3600001</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>53077878.520000003</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>29674728.879999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="6">B6-1</f>
+        <v>2015</v>
+      </c>
+      <c r="C7" s="23">
+        <v>960909015.83000004</v>
+      </c>
+      <c r="D7" s="24">
+        <v>5650000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>447735930.20999998</v>
+      </c>
+      <c r="F7" s="24">
+        <v>76135323.180000007</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>453385930.20999998</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2837678435850992</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>157.63423633939325</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>-474868705.03000003</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>-928254635.24000001</v>
+      </c>
+      <c r="L7" s="9">
+        <v>70043433.900000006</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9199860324281085</v>
+      </c>
+      <c r="N7" s="9">
+        <v>192350081.12</v>
+      </c>
+      <c r="O7" s="9">
+        <v>36626572.689999998</v>
+      </c>
+      <c r="P7" s="9">
+        <v>81615.12</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>98784.22</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9">
+        <v>328135912.69999999</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1835475.81</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9">
+        <v>-6806677.5999999996</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-17185568.890000001</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>-1394007182.95</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>223569404.34999999</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>14254121.32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8">
+        <f>B7-1</f>
+        <v>2014</v>
+      </c>
+      <c r="C8" s="9">
+        <v>650589189.09000003</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9400000</v>
+      </c>
+      <c r="E8" s="9">
+        <v>378726063.69</v>
+      </c>
+      <c r="F8" s="9">
+        <v>15880211.34</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>388126063.69</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9104189591132099</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>188.44034094338502</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>-554650716.37000012</v>
+      </c>
+      <c r="K8" s="9">
+        <f>J8-G8</f>
+        <v>-942776780.06000018</v>
+      </c>
+      <c r="L8" s="9">
+        <v>78913357.269999996</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="5"/>
+        <v>4.9692888577136527</v>
+      </c>
+      <c r="N8" s="9">
+        <v>162964970.91999999</v>
+      </c>
+      <c r="O8" s="9">
+        <v>11364414.529999999</v>
+      </c>
+      <c r="P8" s="9">
+        <v>596315.56000000006</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>2699692.81</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9">
+        <v>261776452.09999999</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9">
+        <v>-10538299.060000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-34160295.140000001</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>-1116160298.97</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>53092587.509999998</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>18920174.760000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="C9" s="9">
+        <v>278305369.32999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2227114.88</v>
+      </c>
+      <c r="E9" s="9">
+        <v>290742647.01999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5459449.4000000004</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>292969761.89999998</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96701805040379052</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>372.27846972419746</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>-428603715.73000002</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
+        <v>-721573477.63</v>
+      </c>
+      <c r="L9" s="9">
+        <v>8659917.5299999993</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5862254406094503</v>
+      </c>
+      <c r="N9" s="9">
+        <v>60768544.579999998</v>
+      </c>
+      <c r="O9" s="9">
+        <v>7524731.7300000004</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
+        <v>33325.85</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
+        <v>143852727.03</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9">
+        <v>-3154045.81</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-206286137.05000001</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>-288663679.68000001</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>-186871463.80000001</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>30072914.489999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10">
+        <f>B9-1</f>
+        <v>2012</v>
+      </c>
+      <c r="C10" s="9">
+        <v>354518126.98000002</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>282525221.49000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2395768.89</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>282625221.49000001</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5703578136507408</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>229.2471160843771</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>-150329914.44999999</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>-432955135.94</v>
+      </c>
+      <c r="L10" s="9">
+        <v>10385228.449999999</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>4.3348206470783577</v>
+      </c>
+      <c r="N10" s="9">
+        <v>33542649.300000001</v>
+      </c>
+      <c r="O10" s="9">
+        <v>6826474.54</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
+        <v>1065346.58</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9">
+        <v>58593037.789999999</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9">
+        <v>-207800.46</v>
+      </c>
+      <c r="W10" s="9">
+        <v>-1998538.88</v>
+      </c>
+      <c r="X10" s="9">
+        <v>-95900005.650000006</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>-236359552.91</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>54937035.93</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>16390441.970000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="15.75">
+      <c r="B11">
+        <f t="shared" si="6"/>
+        <v>2011</v>
+      </c>
+      <c r="C11" s="9">
+        <v>263799046.13</v>
+      </c>
+      <c r="D11" s="9">
+        <v>500000</v>
+      </c>
+      <c r="E11" s="9">
+        <v>168387324.12</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7288648.5999999996</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>168887324.12</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2252399824388216</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>161.78030362614945</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>37527446.98999998</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>-131359877.13000003</v>
+      </c>
+      <c r="L11" s="9">
+        <v>4212918.57</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57801093195794906</v>
+      </c>
+      <c r="N11" s="9">
+        <v>15220897.67</v>
+      </c>
+      <c r="O11" s="9">
+        <v>4153937.85</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="22">
+        <v>28069059.75</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9">
+        <v>105433.97</v>
+      </c>
+      <c r="W11" s="9">
+        <v>-1115462.19</v>
+      </c>
+      <c r="X11" s="9">
+        <v>-102470426.26000001</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>-250416750.28</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>332479189.31</v>
+      </c>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12">
+        <f>B11-1</f>
+        <v>2010</v>
+      </c>
+      <c r="C12" s="9">
+        <v>209748467.41999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>68209841.319999993</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9783790.6500000004</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>68209841.319999993</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11979281477763797</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>3005.1885888835641</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>48786848.730000004</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
+        <v>-19422992.589999989</v>
+      </c>
+      <c r="L12" s="9">
+        <v>715772.4</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>7.3159006115896402E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>13779522.529999999</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1918598.32</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9">
+        <v>10976370.67</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9">
+        <v>83600.850000000006</v>
+      </c>
+      <c r="W12" s="9">
+        <v>-315387.42</v>
+      </c>
+      <c r="X12" s="9">
+        <v>-2251888.34</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>-36766545.869999997</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>50863014.939999998</v>
+      </c>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(C4:C12)</f>
+        <v>6973952383.1600008</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(D4:D12)</f>
+        <v>175708428.15000001</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUM(E4:E12)</f>
+        <v>3257935624.0099998</v>
+      </c>
+      <c r="F13" s="9">
+        <f>SUM(F4:F12)</f>
+        <v>396343560.93999994</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>3433644052.1599998</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0621289086577868</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>88.623479976895069</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>-1042788313.5999998</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>-4476432365.7599993</v>
+      </c>
+      <c r="L13" s="9">
+        <f>SUM(L4:L12)</f>
+        <v>1819114146.5200002</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
+        <v>4.589740633620095</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" ref="N13:AA13" si="7">SUM(N4:N12)</f>
+        <v>1088394269.6199999</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="7"/>
+        <v>259399158.25999999</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="7"/>
+        <v>21607594.59</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="7"/>
+        <v>-6395930.8199999984</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="7"/>
+        <v>-629658.09</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="7"/>
+        <v>-850000</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="7"/>
+        <v>2163700874.4700003</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="7"/>
+        <v>-118488186.5</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="7"/>
+        <v>19180703.309999999</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="7"/>
+        <v>-276744206.19</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="7"/>
+        <v>-1093393308.3499999</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="7"/>
+        <v>-7893001982.8500004</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="7"/>
+        <v>2468827653.9000001</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="7"/>
+        <v>110146997.59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6368,19 +9281,19 @@
   <dimension ref="A3:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6418,7 +9331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6458,7 +9371,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6499,7 +9412,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6513,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6527,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6541,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6555,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6569,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6595,7 +9508,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6615,12 +9528,188 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1102666870.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>533000000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>920007000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <f>B4-1</f>
+        <v>2017</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1023554085.41</v>
+      </c>
+      <c r="D5" s="4">
+        <v>277505750</v>
+      </c>
+      <c r="E5" s="4">
+        <v>682755830</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <f t="shared" ref="B6:B12" si="0">B5-1</f>
+        <v>2016</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1476014097.6800001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>395000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>275409960</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="C7" s="4">
+        <v>354354230.24000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>402000000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>130549000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="C8" s="4">
+        <v>223644964.65000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20000000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="C9" s="4">
+        <v>212340768.36000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4823428.38</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="C10" s="4">
+        <v>477513764.62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="C11" s="4">
+        <v>648642535.57000005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="C12" s="4">
+        <v>76114546.180000007</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM(C4:C12)</f>
+        <v>5594845862.9099998</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM(D4:D12)</f>
+        <v>1702329178.3800001</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM(E4:E12)</f>
+        <v>2019721790</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>